--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_36ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_36ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -1977,28 +1977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>513.5112365863139</v>
+        <v>586.2420338177874</v>
       </c>
       <c r="AB2" t="n">
-        <v>702.6087284142783</v>
+        <v>802.1222138426986</v>
       </c>
       <c r="AC2" t="n">
-        <v>635.5527374919625</v>
+        <v>725.5687955391484</v>
       </c>
       <c r="AD2" t="n">
-        <v>513511.2365863139</v>
+        <v>586242.0338177874</v>
       </c>
       <c r="AE2" t="n">
-        <v>702608.7284142782</v>
+        <v>802122.2138426986</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.506647684258905e-06</v>
+        <v>2.547062664374141e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.44907407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>635552.7374919625</v>
+        <v>725568.7955391484</v>
       </c>
     </row>
     <row r="3">
@@ -2083,28 +2083,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>304.6194073074576</v>
+        <v>356.6918283303617</v>
       </c>
       <c r="AB3" t="n">
-        <v>416.7937119378478</v>
+        <v>488.0414956544674</v>
       </c>
       <c r="AC3" t="n">
-        <v>377.0155050441475</v>
+        <v>441.4635002797455</v>
       </c>
       <c r="AD3" t="n">
-        <v>304619.4073074576</v>
+        <v>356691.8283303617</v>
       </c>
       <c r="AE3" t="n">
-        <v>416793.7119378478</v>
+        <v>488041.4956544674</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.109506327859294e-06</v>
+        <v>3.566225112936286e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.606481481481481</v>
       </c>
       <c r="AH3" t="n">
-        <v>377015.5050441475</v>
+        <v>441463.5002797454</v>
       </c>
     </row>
     <row r="4">
@@ -2189,28 +2189,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>253.2691580475092</v>
+        <v>305.2562382158449</v>
       </c>
       <c r="AB4" t="n">
-        <v>346.5340354871102</v>
+        <v>417.6650520817001</v>
       </c>
       <c r="AC4" t="n">
-        <v>313.4613135038972</v>
+        <v>377.8036857076041</v>
       </c>
       <c r="AD4" t="n">
-        <v>253269.1580475092</v>
+        <v>305256.2382158448</v>
       </c>
       <c r="AE4" t="n">
-        <v>346534.0354871102</v>
+        <v>417665.0520817001</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.324831742857255e-06</v>
+        <v>3.930243410619427e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.715277777777779</v>
       </c>
       <c r="AH4" t="n">
-        <v>313461.3135038972</v>
+        <v>377803.6857076041</v>
       </c>
     </row>
     <row r="5">
@@ -2295,28 +2295,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>251.8186270333342</v>
+        <v>303.8057072016699</v>
       </c>
       <c r="AB5" t="n">
-        <v>344.5493549606051</v>
+        <v>415.6803715551939</v>
       </c>
       <c r="AC5" t="n">
-        <v>311.6660481013245</v>
+        <v>376.0084203050311</v>
       </c>
       <c r="AD5" t="n">
-        <v>251818.6270333342</v>
+        <v>303805.7072016699</v>
       </c>
       <c r="AE5" t="n">
-        <v>344549.3549606051</v>
+        <v>415680.3715551939</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.337016010242506e-06</v>
+        <v>3.950841519171254e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.668981481481481</v>
       </c>
       <c r="AH5" t="n">
-        <v>311666.0481013245</v>
+        <v>376008.4203050311</v>
       </c>
     </row>
   </sheetData>
@@ -2592,28 +2592,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>383.7189608701019</v>
+        <v>444.2623679332627</v>
       </c>
       <c r="AB2" t="n">
-        <v>525.0212107482755</v>
+        <v>607.859371278703</v>
       </c>
       <c r="AC2" t="n">
-        <v>474.9139232663566</v>
+        <v>549.8461260198485</v>
       </c>
       <c r="AD2" t="n">
-        <v>383718.9608701019</v>
+        <v>444262.3679332627</v>
       </c>
       <c r="AE2" t="n">
-        <v>525021.2107482755</v>
+        <v>607859.371278703</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.792766283536718e-06</v>
+        <v>3.104696528347776e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.69367283950617</v>
       </c>
       <c r="AH2" t="n">
-        <v>474913.9232663566</v>
+        <v>549846.1260198485</v>
       </c>
     </row>
     <row r="3">
@@ -2698,28 +2698,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>241.0707608730763</v>
+        <v>291.4382592378084</v>
       </c>
       <c r="AB3" t="n">
-        <v>329.8436503177574</v>
+        <v>398.758683637742</v>
       </c>
       <c r="AC3" t="n">
-        <v>298.3638352699995</v>
+        <v>360.7017145326826</v>
       </c>
       <c r="AD3" t="n">
-        <v>241070.7608730763</v>
+        <v>291438.2592378084</v>
       </c>
       <c r="AE3" t="n">
-        <v>329843.6503177573</v>
+        <v>398758.683637742</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.360455685823983e-06</v>
+        <v>4.087815930272314e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.881172839506172</v>
       </c>
       <c r="AH3" t="n">
-        <v>298363.8352699995</v>
+        <v>360701.7145326826</v>
       </c>
     </row>
     <row r="4">
@@ -2804,28 +2804,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>236.5189668552299</v>
+        <v>286.8864652199618</v>
       </c>
       <c r="AB4" t="n">
-        <v>323.6156849315634</v>
+        <v>392.5307182515448</v>
       </c>
       <c r="AC4" t="n">
-        <v>292.7302581592575</v>
+        <v>355.0681374219398</v>
       </c>
       <c r="AD4" t="n">
-        <v>236518.9668552299</v>
+        <v>286886.4652199618</v>
       </c>
       <c r="AE4" t="n">
-        <v>323615.6849315634</v>
+        <v>392530.7182515448</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.394737627908705e-06</v>
+        <v>4.147185089293694e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.753858024691359</v>
       </c>
       <c r="AH4" t="n">
-        <v>292730.2581592575</v>
+        <v>355068.1374219398</v>
       </c>
     </row>
   </sheetData>
@@ -3101,28 +3101,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>214.9488590899308</v>
+        <v>260.5256871535103</v>
       </c>
       <c r="AB2" t="n">
-        <v>294.1025118811024</v>
+        <v>356.4627387455747</v>
       </c>
       <c r="AC2" t="n">
-        <v>266.0337809227246</v>
+        <v>322.4424352582923</v>
       </c>
       <c r="AD2" t="n">
-        <v>214948.8590899308</v>
+        <v>260525.6871535103</v>
       </c>
       <c r="AE2" t="n">
-        <v>294102.5118811024</v>
+        <v>356462.7387455747</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.425984853013089e-06</v>
+        <v>4.590485388900907e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.641203703703702</v>
       </c>
       <c r="AH2" t="n">
-        <v>266033.7809227246</v>
+        <v>322442.4352582924</v>
       </c>
     </row>
   </sheetData>
@@ -3398,28 +3398,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>236.8874912918718</v>
+        <v>284.3706451867371</v>
       </c>
       <c r="AB2" t="n">
-        <v>324.1199163239273</v>
+        <v>389.0884622919401</v>
       </c>
       <c r="AC2" t="n">
-        <v>293.1863664152276</v>
+        <v>351.9544055398832</v>
       </c>
       <c r="AD2" t="n">
-        <v>236887.4912918718</v>
+        <v>284370.6451867371</v>
       </c>
       <c r="AE2" t="n">
-        <v>324119.9163239273</v>
+        <v>389088.4622919401</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.354442942979746e-06</v>
+        <v>4.289283716480759e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.502314814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>293186.3664152276</v>
+        <v>351954.4055398832</v>
       </c>
     </row>
     <row r="3">
@@ -3504,28 +3504,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>225.2137181334283</v>
+        <v>263.200330757872</v>
       </c>
       <c r="AB3" t="n">
-        <v>308.1473448780288</v>
+        <v>360.1223041220105</v>
       </c>
       <c r="AC3" t="n">
-        <v>278.7381947704757</v>
+        <v>325.7527368514333</v>
       </c>
       <c r="AD3" t="n">
-        <v>225213.7181334283</v>
+        <v>263200.330757872</v>
       </c>
       <c r="AE3" t="n">
-        <v>308147.3448780288</v>
+        <v>360122.3041220105</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.447643992574988e-06</v>
+        <v>4.459075787925841e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.139660493827162</v>
       </c>
       <c r="AH3" t="n">
-        <v>278738.1947704757</v>
+        <v>325752.7368514333</v>
       </c>
     </row>
   </sheetData>
@@ -3801,28 +3801,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>219.1195122999609</v>
+        <v>263.0475107892796</v>
       </c>
       <c r="AB2" t="n">
-        <v>299.8089835992964</v>
+        <v>359.9132090990411</v>
       </c>
       <c r="AC2" t="n">
-        <v>271.1956349892193</v>
+        <v>325.5635975639894</v>
       </c>
       <c r="AD2" t="n">
-        <v>219119.5122999609</v>
+        <v>263047.5107892795</v>
       </c>
       <c r="AE2" t="n">
-        <v>299808.9835992964</v>
+        <v>359913.2090990411</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.349589363861244e-06</v>
+        <v>4.60443811437617e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.33950617283951</v>
       </c>
       <c r="AH2" t="n">
-        <v>271195.6349892194</v>
+        <v>325563.5975639894</v>
       </c>
     </row>
   </sheetData>
@@ -4098,28 +4098,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>420.0009160018786</v>
+        <v>480.9699035959545</v>
       </c>
       <c r="AB2" t="n">
-        <v>574.6637824064645</v>
+        <v>658.0842409945781</v>
       </c>
       <c r="AC2" t="n">
-        <v>519.8186775592751</v>
+        <v>595.2776046610879</v>
       </c>
       <c r="AD2" t="n">
-        <v>420000.9160018786</v>
+        <v>480969.9035959545</v>
       </c>
       <c r="AE2" t="n">
-        <v>574663.7824064646</v>
+        <v>658084.2409945781</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.711944503243923e-06</v>
+        <v>2.945368345753404e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.13348765432099</v>
       </c>
       <c r="AH2" t="n">
-        <v>519818.6775592751</v>
+        <v>595277.604661088</v>
       </c>
     </row>
     <row r="3">
@@ -4204,28 +4204,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>263.5318030786689</v>
+        <v>304.2347185472843</v>
       </c>
       <c r="AB3" t="n">
-        <v>360.5758391748515</v>
+        <v>416.2673638049084</v>
       </c>
       <c r="AC3" t="n">
-        <v>326.1629871553716</v>
+        <v>376.5393908382815</v>
       </c>
       <c r="AD3" t="n">
-        <v>263531.8030786689</v>
+        <v>304234.7185472843</v>
       </c>
       <c r="AE3" t="n">
-        <v>360575.8391748515</v>
+        <v>416267.3638049084</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.298224654703952e-06</v>
+        <v>3.954052328547115e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.039351851851853</v>
       </c>
       <c r="AH3" t="n">
-        <v>326162.9871553716</v>
+        <v>376539.3908382815</v>
       </c>
     </row>
     <row r="4">
@@ -4310,28 +4310,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>240.5866780597376</v>
+        <v>291.3798696552494</v>
       </c>
       <c r="AB4" t="n">
-        <v>329.1813068563211</v>
+        <v>398.6787924349181</v>
       </c>
       <c r="AC4" t="n">
-        <v>297.7647049389175</v>
+        <v>360.6294480341283</v>
       </c>
       <c r="AD4" t="n">
-        <v>240586.6780597376</v>
+        <v>291379.8696552494</v>
       </c>
       <c r="AE4" t="n">
-        <v>329181.3068563211</v>
+        <v>398678.7924349181</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.37667172795928e-06</v>
+        <v>4.089019043849753e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.738425925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>297764.7049389175</v>
+        <v>360629.4480341283</v>
       </c>
     </row>
   </sheetData>
@@ -4607,28 +4607,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>218.7560448509932</v>
+        <v>270.375556893952</v>
       </c>
       <c r="AB2" t="n">
-        <v>299.3116714005671</v>
+        <v>369.9397650700314</v>
       </c>
       <c r="AC2" t="n">
-        <v>270.7457855687545</v>
+        <v>334.633233105468</v>
       </c>
       <c r="AD2" t="n">
-        <v>218756.0448509933</v>
+        <v>270375.556893952</v>
       </c>
       <c r="AE2" t="n">
-        <v>299311.6714005671</v>
+        <v>369939.7650700314</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.262318603108738e-06</v>
+        <v>4.535180462911019e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.98765432098766</v>
       </c>
       <c r="AH2" t="n">
-        <v>270745.7855687545</v>
+        <v>334633.233105468</v>
       </c>
     </row>
   </sheetData>
@@ -4904,28 +4904,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>305.9540615481293</v>
+        <v>355.1106611242757</v>
       </c>
       <c r="AB2" t="n">
-        <v>418.6198447507244</v>
+        <v>485.8780729269266</v>
       </c>
       <c r="AC2" t="n">
-        <v>378.6673543043567</v>
+        <v>439.5065515809382</v>
       </c>
       <c r="AD2" t="n">
-        <v>305954.0615481294</v>
+        <v>355110.6611242758</v>
       </c>
       <c r="AE2" t="n">
-        <v>418619.8447507244</v>
+        <v>485878.0729269265</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.049738880766404e-06</v>
+        <v>3.630239867579077e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.53626543209877</v>
       </c>
       <c r="AH2" t="n">
-        <v>378667.3543043567</v>
+        <v>439506.5515809382</v>
       </c>
     </row>
     <row r="3">
@@ -5010,28 +5010,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>225.8357216553253</v>
+        <v>274.8216395223312</v>
       </c>
       <c r="AB3" t="n">
-        <v>308.9983975375466</v>
+        <v>376.0230914695019</v>
       </c>
       <c r="AC3" t="n">
-        <v>279.5080241586292</v>
+        <v>340.1359753713754</v>
       </c>
       <c r="AD3" t="n">
-        <v>225835.7216553253</v>
+        <v>274821.6395223312</v>
       </c>
       <c r="AE3" t="n">
-        <v>308998.3975375466</v>
+        <v>376023.091469502</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.426571098400339e-06</v>
+        <v>4.297637726242641e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.900462962962964</v>
       </c>
       <c r="AH3" t="n">
-        <v>279508.0241586292</v>
+        <v>340135.9753713754</v>
       </c>
     </row>
   </sheetData>
@@ -5307,28 +5307,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>361.3303793242042</v>
+        <v>421.1729372865658</v>
       </c>
       <c r="AB2" t="n">
-        <v>494.3881657626697</v>
+        <v>576.2673936341035</v>
       </c>
       <c r="AC2" t="n">
-        <v>447.2044531004283</v>
+        <v>521.2692423820307</v>
       </c>
       <c r="AD2" t="n">
-        <v>361330.3793242042</v>
+        <v>421172.9372865658</v>
       </c>
       <c r="AE2" t="n">
-        <v>494388.1657626697</v>
+        <v>576267.3936341036</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.867985875899406e-06</v>
+        <v>3.257604256528128e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.32716049382716</v>
       </c>
       <c r="AH2" t="n">
-        <v>447204.4531004283</v>
+        <v>521269.2423820307</v>
       </c>
     </row>
     <row r="3">
@@ -5413,28 +5413,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>232.91893693403</v>
+        <v>282.8445545485894</v>
       </c>
       <c r="AB3" t="n">
-        <v>318.6899651712691</v>
+        <v>387.0003977544592</v>
       </c>
       <c r="AC3" t="n">
-        <v>288.2746421795931</v>
+        <v>350.0656229512423</v>
       </c>
       <c r="AD3" t="n">
-        <v>232918.93693403</v>
+        <v>282844.5545485894</v>
       </c>
       <c r="AE3" t="n">
-        <v>318689.9651712691</v>
+        <v>387000.3977544592</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.403443349882961e-06</v>
+        <v>4.191395335434852e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.804012345679013</v>
       </c>
       <c r="AH3" t="n">
-        <v>288274.642179593</v>
+        <v>350065.6229512424</v>
       </c>
     </row>
     <row r="4">
@@ -5519,28 +5519,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>232.9350911250418</v>
+        <v>282.8607087396013</v>
       </c>
       <c r="AB4" t="n">
-        <v>318.7120680480841</v>
+        <v>387.0225006312742</v>
       </c>
       <c r="AC4" t="n">
-        <v>288.2946355888664</v>
+        <v>350.0856163605158</v>
       </c>
       <c r="AD4" t="n">
-        <v>232935.0911250418</v>
+        <v>282860.7087396013</v>
       </c>
       <c r="AE4" t="n">
-        <v>318712.0680480841</v>
+        <v>387022.5006312742</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.407556768970205e-06</v>
+        <v>4.198568779142525e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.788580246913581</v>
       </c>
       <c r="AH4" t="n">
-        <v>288294.6355888664</v>
+        <v>350085.6163605158</v>
       </c>
     </row>
   </sheetData>
@@ -5816,28 +5816,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>474.1737714739917</v>
+        <v>546.4504078863656</v>
       </c>
       <c r="AB2" t="n">
-        <v>648.7854732011198</v>
+        <v>747.6775557606868</v>
       </c>
       <c r="AC2" t="n">
-        <v>586.8662982149349</v>
+        <v>676.3202592109263</v>
       </c>
       <c r="AD2" t="n">
-        <v>474173.7714739917</v>
+        <v>546450.4078863657</v>
       </c>
       <c r="AE2" t="n">
-        <v>648785.4732011198</v>
+        <v>747677.5557606868</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.571259540123415e-06</v>
+        <v>2.671037080817388e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.99768518518518</v>
       </c>
       <c r="AH2" t="n">
-        <v>586866.2982149349</v>
+        <v>676320.2592109264</v>
       </c>
     </row>
     <row r="3">
@@ -5922,28 +5922,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>290.0348651389328</v>
+        <v>341.5513995575873</v>
       </c>
       <c r="AB3" t="n">
-        <v>396.8384979182824</v>
+        <v>467.3256930589815</v>
       </c>
       <c r="AC3" t="n">
-        <v>358.9647886432906</v>
+        <v>422.7247848091612</v>
       </c>
       <c r="AD3" t="n">
-        <v>290034.8651389328</v>
+        <v>341551.3995575873</v>
       </c>
       <c r="AE3" t="n">
-        <v>396838.4979182823</v>
+        <v>467325.6930589815</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.172743684690049e-06</v>
+        <v>3.693520262389679e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.398148148148147</v>
       </c>
       <c r="AH3" t="n">
-        <v>358964.7886432906</v>
+        <v>422724.7848091612</v>
       </c>
     </row>
     <row r="4">
@@ -6028,28 +6028,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>247.6512420692441</v>
+        <v>299.2530278339223</v>
       </c>
       <c r="AB4" t="n">
-        <v>338.8473550006908</v>
+        <v>409.4511947942033</v>
       </c>
       <c r="AC4" t="n">
-        <v>306.5082390147755</v>
+        <v>370.3737474314049</v>
       </c>
       <c r="AD4" t="n">
-        <v>247651.2420692441</v>
+        <v>299253.0278339223</v>
       </c>
       <c r="AE4" t="n">
-        <v>338847.3550006908</v>
+        <v>409451.1947942033</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.349451489175476e-06</v>
+        <v>3.993911818461524e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.69212962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>306508.2390147755</v>
+        <v>370373.7474314049</v>
       </c>
     </row>
     <row r="5">
@@ -6134,28 +6134,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>248.156902461267</v>
+        <v>299.7586882259452</v>
       </c>
       <c r="AB5" t="n">
-        <v>339.5392218572182</v>
+        <v>410.1430616507311</v>
       </c>
       <c r="AC5" t="n">
-        <v>307.1340750695574</v>
+        <v>370.9995834861869</v>
       </c>
       <c r="AD5" t="n">
-        <v>248156.902461267</v>
+        <v>299758.6882259452</v>
       </c>
       <c r="AE5" t="n">
-        <v>339539.2218572182</v>
+        <v>410143.0616507311</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.349980871453742e-06</v>
+        <v>3.994811733249037e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.69212962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>307134.0750695574</v>
+        <v>370999.5834861869</v>
       </c>
     </row>
   </sheetData>
@@ -6431,28 +6431,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>255.2771379457662</v>
+        <v>303.3178697515393</v>
       </c>
       <c r="AB2" t="n">
-        <v>349.2814421697252</v>
+        <v>415.012890834056</v>
       </c>
       <c r="AC2" t="n">
-        <v>315.9465115487338</v>
+        <v>375.4046430071035</v>
       </c>
       <c r="AD2" t="n">
-        <v>255277.1379457662</v>
+        <v>303317.8697515393</v>
       </c>
       <c r="AE2" t="n">
-        <v>349281.4421697251</v>
+        <v>415012.890834056</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.250237403187873e-06</v>
+        <v>4.057710533997363e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.818672839506172</v>
       </c>
       <c r="AH2" t="n">
-        <v>315946.5115487338</v>
+        <v>375404.6430071035</v>
       </c>
     </row>
     <row r="3">
@@ -6537,28 +6537,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>228.369130717272</v>
+        <v>266.8018056704419</v>
       </c>
       <c r="AB3" t="n">
-        <v>312.4647195822201</v>
+        <v>365.0500009832481</v>
       </c>
       <c r="AC3" t="n">
-        <v>282.6435252923739</v>
+        <v>330.2101412403004</v>
       </c>
       <c r="AD3" t="n">
-        <v>228369.1307172721</v>
+        <v>266801.8056704419</v>
       </c>
       <c r="AE3" t="n">
-        <v>312464.7195822201</v>
+        <v>365050.0009832481</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.447364407890544e-06</v>
+        <v>4.413177171599332e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.027777777777779</v>
       </c>
       <c r="AH3" t="n">
-        <v>282643.5252923738</v>
+        <v>330210.1412403004</v>
       </c>
     </row>
   </sheetData>
@@ -6834,28 +6834,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>217.851800056885</v>
+        <v>263.9398103536766</v>
       </c>
       <c r="AB2" t="n">
-        <v>298.074443780804</v>
+        <v>361.1340927285278</v>
       </c>
       <c r="AC2" t="n">
-        <v>269.6266372165613</v>
+        <v>326.6679617733988</v>
       </c>
       <c r="AD2" t="n">
-        <v>217851.800056885</v>
+        <v>263939.8103536767</v>
       </c>
       <c r="AE2" t="n">
-        <v>298074.4437808039</v>
+        <v>361134.0927285278</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.441064144203862e-06</v>
+        <v>4.554245424657988e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.429012345679013</v>
       </c>
       <c r="AH2" t="n">
-        <v>269626.6372165614</v>
+        <v>326667.9617733988</v>
       </c>
     </row>
     <row r="3">
@@ -6940,28 +6940,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>218.9080032202106</v>
+        <v>264.9960135170023</v>
       </c>
       <c r="AB3" t="n">
-        <v>299.5195875452603</v>
+        <v>362.5792364929849</v>
       </c>
       <c r="AC3" t="n">
-        <v>270.9338584884104</v>
+        <v>327.9751830452481</v>
       </c>
       <c r="AD3" t="n">
-        <v>218908.0032202106</v>
+        <v>264996.0135170023</v>
       </c>
       <c r="AE3" t="n">
-        <v>299519.5875452603</v>
+        <v>362579.2364929849</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.439990309837674e-06</v>
+        <v>4.552241992974039e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.43287037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>270933.8584884104</v>
+        <v>327975.1830452481</v>
       </c>
     </row>
   </sheetData>
@@ -11690,28 +11690,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>212.2720403999452</v>
+        <v>265.9022945697608</v>
       </c>
       <c r="AB2" t="n">
-        <v>290.43997045656</v>
+        <v>363.8192502116672</v>
       </c>
       <c r="AC2" t="n">
-        <v>262.7207873113301</v>
+        <v>329.0968515949896</v>
       </c>
       <c r="AD2" t="n">
-        <v>212272.0403999452</v>
+        <v>265902.2945697608</v>
       </c>
       <c r="AE2" t="n">
-        <v>290439.97045656</v>
+        <v>363819.2502116672</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.397916467189716e-06</v>
+        <v>4.611282289799526e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.930555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>262720.7873113301</v>
+        <v>329096.8515949897</v>
       </c>
     </row>
   </sheetData>
@@ -11987,28 +11987,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>237.8391870232388</v>
+        <v>288.166336177837</v>
       </c>
       <c r="AB2" t="n">
-        <v>325.4220684094354</v>
+        <v>394.2818941600311</v>
       </c>
       <c r="AC2" t="n">
-        <v>294.3642429332772</v>
+        <v>356.6521835595109</v>
       </c>
       <c r="AD2" t="n">
-        <v>237839.1870232388</v>
+        <v>288166.336177837</v>
       </c>
       <c r="AE2" t="n">
-        <v>325422.0684094355</v>
+        <v>394281.8941600311</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.108250088989533e-06</v>
+        <v>4.348475202812751e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.12191358024691</v>
       </c>
       <c r="AH2" t="n">
-        <v>294364.2429332772</v>
+        <v>356652.183559511</v>
       </c>
     </row>
   </sheetData>
@@ -12284,28 +12284,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>327.5327574626976</v>
+        <v>386.9087724292502</v>
       </c>
       <c r="AB2" t="n">
-        <v>448.1447684859127</v>
+        <v>529.3856516480563</v>
       </c>
       <c r="AC2" t="n">
-        <v>405.3744607567493</v>
+        <v>478.8618280521936</v>
       </c>
       <c r="AD2" t="n">
-        <v>327532.7574626976</v>
+        <v>386908.7724292502</v>
       </c>
       <c r="AE2" t="n">
-        <v>448144.7684859126</v>
+        <v>529385.6516480563</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.958644784027111e-06</v>
+        <v>3.441261621355463e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.9104938271605</v>
       </c>
       <c r="AH2" t="n">
-        <v>405374.4607567493</v>
+        <v>478861.8280521936</v>
       </c>
     </row>
     <row r="3">
@@ -12390,28 +12390,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>229.7722302718066</v>
+        <v>279.2380192681748</v>
       </c>
       <c r="AB3" t="n">
-        <v>314.3845022931169</v>
+        <v>382.0657770746886</v>
       </c>
       <c r="AC3" t="n">
-        <v>284.3800866357753</v>
+        <v>345.6019555433654</v>
       </c>
       <c r="AD3" t="n">
-        <v>229772.2302718066</v>
+        <v>279238.0192681748</v>
       </c>
       <c r="AE3" t="n">
-        <v>314384.5022931169</v>
+        <v>382065.7770746886</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.412314310348048e-06</v>
+        <v>4.238341082847621e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.858024691358025</v>
       </c>
       <c r="AH3" t="n">
-        <v>284380.0866357753</v>
+        <v>345601.9555433654</v>
       </c>
     </row>
     <row r="4">
@@ -12496,28 +12496,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>230.2929889724721</v>
+        <v>279.7587779688403</v>
       </c>
       <c r="AB4" t="n">
-        <v>315.0970273216196</v>
+        <v>382.7783021031916</v>
       </c>
       <c r="AC4" t="n">
-        <v>285.024609275593</v>
+        <v>346.2464781831833</v>
       </c>
       <c r="AD4" t="n">
-        <v>230292.9889724721</v>
+        <v>279758.7779688403</v>
       </c>
       <c r="AE4" t="n">
-        <v>315097.0273216196</v>
+        <v>382778.3021031916</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.413366779334629e-06</v>
+        <v>4.240190229339484e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.854166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>285024.609275593</v>
+        <v>346246.4781831834</v>
       </c>
     </row>
   </sheetData>
@@ -12793,28 +12793,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>446.2076152221621</v>
+        <v>517.9276217744996</v>
       </c>
       <c r="AB2" t="n">
-        <v>610.5209444376288</v>
+        <v>708.6514214659172</v>
       </c>
       <c r="AC2" t="n">
-        <v>552.2536823720279</v>
+        <v>641.0187243997261</v>
       </c>
       <c r="AD2" t="n">
-        <v>446207.6152221622</v>
+        <v>517927.6217744995</v>
       </c>
       <c r="AE2" t="n">
-        <v>610520.9444376288</v>
+        <v>708651.4214659173</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.64010958087251e-06</v>
+        <v>2.804404605551382e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.55787037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>552253.6823720279</v>
+        <v>641018.7243997261</v>
       </c>
     </row>
     <row r="3">
@@ -12899,28 +12899,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>277.2143654284645</v>
+        <v>318.2460820266778</v>
       </c>
       <c r="AB3" t="n">
-        <v>379.2969246138906</v>
+        <v>435.4383294551454</v>
       </c>
       <c r="AC3" t="n">
-        <v>343.0973584753173</v>
+        <v>393.8807064334792</v>
       </c>
       <c r="AD3" t="n">
-        <v>277214.3654284645</v>
+        <v>318246.0820266778</v>
       </c>
       <c r="AE3" t="n">
-        <v>379296.9246138905</v>
+        <v>435438.3294551454</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.231010220729917e-06</v>
+        <v>3.814778848324727e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.232253086419753</v>
       </c>
       <c r="AH3" t="n">
-        <v>343097.3584753172</v>
+        <v>393880.7064334793</v>
       </c>
     </row>
     <row r="4">
@@ -13005,28 +13005,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>242.8439374507442</v>
+        <v>294.0481304582534</v>
       </c>
       <c r="AB4" t="n">
-        <v>332.2697887383508</v>
+        <v>402.3296245809469</v>
       </c>
       <c r="AC4" t="n">
-        <v>300.5584264448389</v>
+        <v>363.9318498841151</v>
       </c>
       <c r="AD4" t="n">
-        <v>242843.9374507442</v>
+        <v>294048.1304582534</v>
       </c>
       <c r="AE4" t="n">
-        <v>332269.7887383508</v>
+        <v>402329.6245809469</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.371395828934523e-06</v>
+        <v>4.054822593446127e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.684413580246915</v>
       </c>
       <c r="AH4" t="n">
-        <v>300558.4264448389</v>
+        <v>363931.8498841152</v>
       </c>
     </row>
     <row r="5">
@@ -13111,28 +13111,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>243.655574626504</v>
+        <v>294.8597676340132</v>
       </c>
       <c r="AB5" t="n">
-        <v>333.38030652913</v>
+        <v>403.4401423717266</v>
       </c>
       <c r="AC5" t="n">
-        <v>301.5629579762879</v>
+        <v>364.9363814155643</v>
       </c>
       <c r="AD5" t="n">
-        <v>243655.574626504</v>
+        <v>294859.7676340132</v>
       </c>
       <c r="AE5" t="n">
-        <v>333380.30652913</v>
+        <v>403440.1423717266</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.37112893614326e-06</v>
+        <v>4.054366236516239e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.684413580246915</v>
       </c>
       <c r="AH5" t="n">
-        <v>301562.9579762879</v>
+        <v>364936.3814155643</v>
       </c>
     </row>
   </sheetData>
@@ -13408,28 +13408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>263.7656940445045</v>
+        <v>328.7837809239109</v>
       </c>
       <c r="AB2" t="n">
-        <v>360.895859112849</v>
+        <v>449.8564739768048</v>
       </c>
       <c r="AC2" t="n">
-        <v>326.4524648396374</v>
+        <v>406.9228034779843</v>
       </c>
       <c r="AD2" t="n">
-        <v>263765.6940445045</v>
+        <v>328783.7809239109</v>
       </c>
       <c r="AE2" t="n">
-        <v>360895.859112849</v>
+        <v>449856.4739768048</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.807645182757681e-06</v>
+        <v>3.874616210778518e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.63734567901235</v>
       </c>
       <c r="AH2" t="n">
-        <v>326452.4648396374</v>
+        <v>406922.8034779843</v>
       </c>
     </row>
   </sheetData>
@@ -13705,28 +13705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>223.3421586962326</v>
+        <v>270.0627863710401</v>
       </c>
       <c r="AB2" t="n">
-        <v>305.5865946886839</v>
+        <v>369.5118186421217</v>
       </c>
       <c r="AC2" t="n">
-        <v>276.4218389851656</v>
+        <v>334.2461292840115</v>
       </c>
       <c r="AD2" t="n">
-        <v>223342.1586962326</v>
+        <v>270062.7863710402</v>
       </c>
       <c r="AE2" t="n">
-        <v>305586.5946886839</v>
+        <v>369511.8186421217</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.429175149685719e-06</v>
+        <v>4.475591329247164e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.336419753086419</v>
       </c>
       <c r="AH2" t="n">
-        <v>276421.8389851656</v>
+        <v>334246.1292840115</v>
       </c>
     </row>
     <row r="3">
@@ -13811,28 +13811,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>221.6607079643568</v>
+        <v>268.3813356391643</v>
       </c>
       <c r="AB3" t="n">
-        <v>303.2859596169617</v>
+        <v>367.2111835703984</v>
       </c>
       <c r="AC3" t="n">
-        <v>274.3407732957263</v>
+        <v>332.1650635945718</v>
       </c>
       <c r="AD3" t="n">
-        <v>221660.7079643568</v>
+        <v>268381.3356391643</v>
       </c>
       <c r="AE3" t="n">
-        <v>303285.9596169617</v>
+        <v>367211.1835703984</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.450515160317986e-06</v>
+        <v>4.514908859135517e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.255401234567902</v>
       </c>
       <c r="AH3" t="n">
-        <v>274340.7732957263</v>
+        <v>332165.0635945718</v>
       </c>
     </row>
   </sheetData>
@@ -14108,28 +14108,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>285.0637621157262</v>
+        <v>333.5473319742175</v>
       </c>
       <c r="AB2" t="n">
-        <v>390.0368154523437</v>
+        <v>456.3741746768745</v>
       </c>
       <c r="AC2" t="n">
-        <v>352.8122492056799</v>
+        <v>412.8184639708899</v>
       </c>
       <c r="AD2" t="n">
-        <v>285063.7621157262</v>
+        <v>333547.3319742174</v>
       </c>
       <c r="AE2" t="n">
-        <v>390036.8154523437</v>
+        <v>456374.1746768745</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.147240065882114e-06</v>
+        <v>3.835887675810409e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.16975308641975</v>
       </c>
       <c r="AH2" t="n">
-        <v>352812.2492056799</v>
+        <v>412818.4639708899</v>
       </c>
     </row>
     <row r="3">
@@ -14214,28 +14214,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>222.0777041944436</v>
+        <v>270.5611845443865</v>
       </c>
       <c r="AB3" t="n">
-        <v>303.8565122555414</v>
+        <v>370.1937490106699</v>
       </c>
       <c r="AC3" t="n">
-        <v>274.8568731912557</v>
+        <v>334.8629771752807</v>
       </c>
       <c r="AD3" t="n">
-        <v>222077.7041944436</v>
+        <v>270561.1845443865</v>
       </c>
       <c r="AE3" t="n">
-        <v>303856.5122555414</v>
+        <v>370193.7490106699</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.4377120594005e-06</v>
+        <v>4.354794694084363e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.958333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>274856.8731912557</v>
+        <v>334862.9771752807</v>
       </c>
     </row>
   </sheetData>
